--- a/gantt_v2.xlsx
+++ b/gantt_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\BTL-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45935E91-281B-47E9-A236-227406BF5C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C35E11-1E79-45BF-AB7D-E89E7D61F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C73C31B1-B754-4D39-8C55-21044C937229}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +316,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -345,6 +343,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,19 +392,28 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,43 +422,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,19 +458,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -779,12 +787,12 @@
   <dimension ref="B2:CR50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AN51" sqref="AN51"/>
+      <selection activeCell="BC43" sqref="BC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="96" width="1.77734375" customWidth="1"/>
+    <col min="1" max="96" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:96" x14ac:dyDescent="0.3">
@@ -809,187 +817,198 @@
       <c r="R2" s="55"/>
     </row>
     <row r="3" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="2" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="3" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="5">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="31">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="31">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="31">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="31">
         <v>3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="31">
         <v>4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="31">
         <v>5</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="31">
         <v>6</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="31">
         <v>7</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="31">
         <v>8</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="31">
         <v>9</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="31">
         <v>10</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="31">
         <v>11</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="32">
         <v>12</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="8"/>
-      <c r="BR5" s="8"/>
-      <c r="BS5" s="8"/>
-      <c r="BT5" s="8"/>
-      <c r="BU5" s="8"/>
-      <c r="BV5" s="8"/>
-      <c r="BW5" s="8"/>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="8"/>
-      <c r="BZ5" s="8"/>
-      <c r="CA5" s="8"/>
-      <c r="CB5" s="8"/>
-      <c r="CC5" s="8"/>
-      <c r="CD5" s="8"/>
-      <c r="CE5" s="8"/>
-      <c r="CF5" s="8"/>
-      <c r="CG5" s="8"/>
-      <c r="CH5" s="8"/>
-      <c r="CI5" s="8"/>
-      <c r="CJ5" s="8"/>
-      <c r="CK5" s="8"/>
-      <c r="CL5" s="8"/>
-      <c r="CM5" s="8"/>
-      <c r="CN5" s="8"/>
-      <c r="CO5" s="8"/>
-      <c r="CP5" s="8"/>
-      <c r="CQ5" s="8"/>
-      <c r="CR5" s="8"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
     </row>
     <row r="6" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="F6" s="65" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
     </row>
     <row r="9" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
@@ -1031,303 +1050,322 @@
       <c r="AJ9" s="55"/>
     </row>
     <row r="10" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="1" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="2"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="29"/>
     </row>
     <row r="11" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="1" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="2"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="29"/>
     </row>
     <row r="12" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="10" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="11"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="34"/>
     </row>
     <row r="13" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="3" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="4"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="30"/>
     </row>
     <row r="14" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="5">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="31">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="31">
         <v>1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="31">
         <v>2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="31">
         <v>3</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="31">
         <v>4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="31">
         <v>5</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="31">
         <v>6</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="31">
         <v>7</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="31">
         <v>8</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="31">
         <v>9</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="31">
         <v>10</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="31">
         <v>11</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="31">
         <v>12</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="31">
         <v>13</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="31">
         <v>14</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="31">
         <v>15</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="31">
         <v>16</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="31">
         <v>17</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="31">
         <v>18</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="31">
         <v>19</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="31">
         <v>20</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="31">
         <v>21</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="31">
         <v>22</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC14" s="31">
         <v>23</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AD14" s="31">
         <v>24</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE14" s="31">
         <v>25</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF14" s="31">
         <v>26</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AG14" s="31">
         <v>27</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AH14" s="31">
         <v>28</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14" s="31">
         <v>29</v>
       </c>
-      <c r="AJ14" s="9">
+      <c r="AJ14" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="52"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38" t="s">
+      <c r="K15" s="46"/>
+      <c r="L15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40" t="s">
+      <c r="M15" s="48"/>
+      <c r="N15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42" t="s">
+      <c r="O15" s="50"/>
+      <c r="P15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="43"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17" s="53" t="s">
@@ -1369,303 +1407,322 @@
       <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="1" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="2"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="29"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="1" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="2"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="29"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="10" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="11"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="34"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="3" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="4"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="30"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="5">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="31">
         <v>0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="31">
         <v>1</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="31">
         <v>2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="31">
         <v>3</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="31">
         <v>4</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="31">
         <v>5</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="31">
         <v>6</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="31">
         <v>7</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="31">
         <v>8</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="31">
         <v>9</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="31">
         <v>10</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="31">
         <v>11</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="31">
         <v>12</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="31">
         <v>13</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="31">
         <v>14</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="31">
         <v>15</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="31">
         <v>16</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="31">
         <v>17</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="31">
         <v>18</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="31">
         <v>19</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="31">
         <v>20</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="31">
         <v>21</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" s="31">
         <v>22</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" s="31">
         <v>23</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" s="31">
         <v>24</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" s="31">
         <v>25</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" s="31">
         <v>26</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AG22" s="31">
         <v>27</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AH22" s="31">
         <v>28</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AI22" s="31">
         <v>29</v>
       </c>
-      <c r="AJ22" s="9">
+      <c r="AJ22" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="52"/>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38" t="s">
+      <c r="K23" s="46"/>
+      <c r="L23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40" t="s">
+      <c r="M23" s="48"/>
+      <c r="N23" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42" t="s">
+      <c r="O23" s="50"/>
+      <c r="P23" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q23" s="43"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -1707,303 +1764,322 @@
       <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="68" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="2"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="29"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="68" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="2"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="29"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="69" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="11"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="34"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="3" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="4"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="30"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="5">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="31">
         <v>0</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="31">
         <v>1</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="31">
         <v>2</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="31">
         <v>3</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="31">
         <v>4</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="31">
         <v>5</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="31">
         <v>6</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="31">
         <v>7</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="31">
         <v>8</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="31">
         <v>9</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="31">
         <v>10</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="31">
         <v>11</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="31">
         <v>12</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="31">
         <v>13</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="31">
         <v>14</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="31">
         <v>15</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="31">
         <v>16</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" s="31">
         <v>17</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31" s="31">
         <v>18</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Y31" s="31">
         <v>19</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="Z31" s="31">
         <v>20</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="AA31" s="31">
         <v>21</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AB31" s="31">
         <v>22</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AC31" s="31">
         <v>23</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AD31" s="31">
         <v>24</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AE31" s="31">
         <v>25</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AF31" s="31">
         <v>26</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AG31" s="31">
         <v>27</v>
       </c>
-      <c r="AH31" s="5">
+      <c r="AH31" s="31">
         <v>28</v>
       </c>
-      <c r="AI31" s="5">
+      <c r="AI31" s="31">
         <v>29</v>
       </c>
-      <c r="AJ31" s="9">
+      <c r="AJ31" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="50"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="52"/>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36" t="s">
+      <c r="I32" s="44"/>
+      <c r="J32" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38" t="s">
+      <c r="K32" s="46"/>
+      <c r="L32" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40" t="s">
+      <c r="M32" s="48"/>
+      <c r="N32" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="42" t="s">
+      <c r="O32" s="50"/>
+      <c r="P32" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q32" s="43"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
     </row>
     <row r="36" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
@@ -2095,484 +2171,671 @@
       <c r="CH36" s="55"/>
     </row>
     <row r="37" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="19"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="20"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="19"/>
-      <c r="BA37" s="19"/>
-      <c r="BB37" s="20"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="19"/>
-      <c r="BF37" s="19"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="19"/>
-      <c r="BI37" s="19"/>
-      <c r="BJ37" s="32"/>
-      <c r="BK37" s="32"/>
-      <c r="BL37" s="32"/>
-      <c r="BM37" s="32"/>
-      <c r="BN37" s="32"/>
-      <c r="BO37" s="32"/>
-      <c r="BP37" s="32"/>
-      <c r="BQ37" s="24"/>
-      <c r="BR37" s="24"/>
-      <c r="BS37" s="24"/>
-      <c r="BT37" s="24"/>
-      <c r="BU37" s="24"/>
-      <c r="BV37" s="24"/>
-      <c r="BW37" s="24"/>
-      <c r="BX37" s="24"/>
-      <c r="BY37" s="24"/>
-      <c r="BZ37" s="24"/>
-      <c r="CA37" s="24"/>
-      <c r="CB37" s="24"/>
-      <c r="CC37" s="24"/>
-      <c r="CD37" s="24"/>
-      <c r="CE37" s="24"/>
-      <c r="CF37" s="10" t="s">
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="13"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="13"/>
+      <c r="AY37" s="13"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="13"/>
+      <c r="BD37" s="13"/>
+      <c r="BE37" s="11"/>
+      <c r="BF37" s="11"/>
+      <c r="BG37" s="13"/>
+      <c r="BH37" s="11"/>
+      <c r="BI37" s="11"/>
+      <c r="BJ37" s="24"/>
+      <c r="BK37" s="24"/>
+      <c r="BL37" s="24"/>
+      <c r="BM37" s="24"/>
+      <c r="BN37" s="24"/>
+      <c r="BO37" s="24"/>
+      <c r="BP37" s="24"/>
+      <c r="BQ37" s="16"/>
+      <c r="BR37" s="16"/>
+      <c r="BS37" s="16"/>
+      <c r="BT37" s="16"/>
+      <c r="BU37" s="16"/>
+      <c r="BV37" s="16"/>
+      <c r="BW37" s="16"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="16"/>
+      <c r="BZ37" s="16"/>
+      <c r="CA37" s="16"/>
+      <c r="CB37" s="16"/>
+      <c r="CC37" s="16"/>
+      <c r="CD37" s="16"/>
+      <c r="CE37" s="16"/>
+      <c r="CF37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="CG37" s="10"/>
-      <c r="CH37" s="11"/>
+      <c r="CG37" s="33"/>
+      <c r="CH37" s="34"/>
     </row>
     <row r="38" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="5">
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="31">
         <v>0</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="31">
         <v>1</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="31">
         <v>2</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="31">
         <v>3</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="31">
         <v>4</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="31">
         <v>5</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="31">
         <v>6</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="31">
         <v>7</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="31">
         <v>8</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="31">
         <v>9</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="31">
         <v>10</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="31">
         <v>11</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="31">
         <v>12</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="31">
         <v>13</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="31">
         <v>14</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="31">
         <v>15</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="31">
         <v>16</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38" s="31">
         <v>17</v>
       </c>
-      <c r="X38" s="5">
+      <c r="X38" s="31">
         <v>18</v>
       </c>
-      <c r="Y38" s="5">
+      <c r="Y38" s="31">
         <v>19</v>
       </c>
-      <c r="Z38" s="5">
+      <c r="Z38" s="31">
         <v>20</v>
       </c>
-      <c r="AA38" s="5">
+      <c r="AA38" s="31">
         <v>21</v>
       </c>
-      <c r="AB38" s="5">
+      <c r="AB38" s="31">
         <v>22</v>
       </c>
-      <c r="AC38" s="5">
+      <c r="AC38" s="31">
         <v>23</v>
       </c>
-      <c r="AD38" s="5">
+      <c r="AD38" s="31">
         <v>24</v>
       </c>
-      <c r="AE38" s="5">
+      <c r="AE38" s="31">
         <v>25</v>
       </c>
-      <c r="AF38" s="5">
+      <c r="AF38" s="31">
         <v>26</v>
       </c>
-      <c r="AG38" s="5">
+      <c r="AG38" s="31">
         <v>27</v>
       </c>
-      <c r="AH38" s="5">
+      <c r="AH38" s="31">
         <v>28</v>
       </c>
-      <c r="AI38" s="5">
+      <c r="AI38" s="31">
         <v>29</v>
       </c>
-      <c r="AJ38" s="5">
+      <c r="AJ38" s="31">
         <v>30</v>
       </c>
-      <c r="AK38" s="73">
+      <c r="AK38" s="35">
         <v>31</v>
       </c>
-      <c r="AL38" s="73">
+      <c r="AL38" s="35">
         <v>32</v>
       </c>
-      <c r="AM38" s="73">
+      <c r="AM38" s="35">
         <v>33</v>
       </c>
-      <c r="AN38" s="73">
+      <c r="AN38" s="35">
         <v>34</v>
       </c>
-      <c r="AO38" s="73">
+      <c r="AO38" s="35">
         <v>35</v>
       </c>
-      <c r="AP38" s="73">
+      <c r="AP38" s="35">
         <v>36</v>
       </c>
-      <c r="AQ38" s="73">
+      <c r="AQ38" s="35">
         <v>37</v>
       </c>
-      <c r="AR38" s="73">
+      <c r="AR38" s="35">
         <v>38</v>
       </c>
-      <c r="AS38" s="73">
+      <c r="AS38" s="35">
         <v>39</v>
       </c>
-      <c r="AT38" s="73">
+      <c r="AT38" s="35">
         <v>40</v>
       </c>
-      <c r="AU38" s="73">
+      <c r="AU38" s="35">
         <v>41</v>
       </c>
-      <c r="AV38" s="73">
+      <c r="AV38" s="35">
         <v>42</v>
       </c>
-      <c r="AW38" s="73">
+      <c r="AW38" s="35">
         <v>43</v>
       </c>
-      <c r="AX38" s="73">
+      <c r="AX38" s="35">
         <v>44</v>
       </c>
-      <c r="AY38" s="73">
+      <c r="AY38" s="35">
         <v>45</v>
       </c>
-      <c r="AZ38" s="73">
+      <c r="AZ38" s="35">
         <v>46</v>
       </c>
-      <c r="BA38" s="73">
+      <c r="BA38" s="35">
         <v>47</v>
       </c>
-      <c r="BB38" s="73">
+      <c r="BB38" s="35">
         <v>48</v>
       </c>
-      <c r="BC38" s="73">
+      <c r="BC38" s="35">
         <v>49</v>
       </c>
-      <c r="BD38" s="73">
+      <c r="BD38" s="35">
         <v>50</v>
       </c>
-      <c r="BE38" s="73">
+      <c r="BE38" s="35">
         <v>51</v>
       </c>
-      <c r="BF38" s="73">
+      <c r="BF38" s="35">
         <v>52</v>
       </c>
-      <c r="BG38" s="73">
+      <c r="BG38" s="35">
         <v>53</v>
       </c>
-      <c r="BH38" s="73">
+      <c r="BH38" s="35">
         <v>54</v>
       </c>
-      <c r="BI38" s="73">
+      <c r="BI38" s="35">
         <v>55</v>
       </c>
-      <c r="BJ38" s="73">
+      <c r="BJ38" s="35">
         <v>56</v>
       </c>
-      <c r="BK38" s="73">
+      <c r="BK38" s="35">
         <v>57</v>
       </c>
-      <c r="BL38" s="73">
+      <c r="BL38" s="35">
         <v>58</v>
       </c>
-      <c r="BM38" s="73">
+      <c r="BM38" s="35">
         <v>59</v>
       </c>
-      <c r="BN38" s="73">
+      <c r="BN38" s="35">
         <v>60</v>
       </c>
-      <c r="BO38" s="73">
+      <c r="BO38" s="35">
         <v>61</v>
       </c>
-      <c r="BP38" s="73">
+      <c r="BP38" s="35">
         <v>62</v>
       </c>
-      <c r="BQ38" s="73">
+      <c r="BQ38" s="35">
         <v>63</v>
       </c>
-      <c r="BR38" s="73">
+      <c r="BR38" s="35">
         <v>64</v>
       </c>
-      <c r="BS38" s="73">
+      <c r="BS38" s="35">
         <v>65</v>
       </c>
-      <c r="BT38" s="73">
+      <c r="BT38" s="35">
         <v>66</v>
       </c>
-      <c r="BU38" s="73">
+      <c r="BU38" s="35">
         <v>67</v>
       </c>
-      <c r="BV38" s="73">
+      <c r="BV38" s="35">
         <v>68</v>
       </c>
-      <c r="BW38" s="73">
+      <c r="BW38" s="35">
         <v>69</v>
       </c>
-      <c r="BX38" s="73">
+      <c r="BX38" s="35">
         <v>70</v>
       </c>
-      <c r="BY38" s="73">
+      <c r="BY38" s="35">
         <v>71</v>
       </c>
-      <c r="BZ38" s="73">
+      <c r="BZ38" s="35">
         <v>72</v>
       </c>
-      <c r="CA38" s="73">
+      <c r="CA38" s="35">
         <v>73</v>
       </c>
-      <c r="CB38" s="73">
+      <c r="CB38" s="35">
         <v>74</v>
       </c>
-      <c r="CC38" s="73">
+      <c r="CC38" s="35">
         <v>75</v>
       </c>
-      <c r="CD38" s="73">
+      <c r="CD38" s="35">
         <v>76</v>
       </c>
-      <c r="CE38" s="73">
+      <c r="CE38" s="35">
         <v>77</v>
       </c>
-      <c r="CF38" s="73">
+      <c r="CF38" s="35">
         <v>78</v>
       </c>
-      <c r="CG38" s="73">
+      <c r="CG38" s="35">
         <v>79</v>
       </c>
-      <c r="CH38" s="74">
+      <c r="CH38" s="36">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="50"/>
+      <c r="E39" s="42"/>
       <c r="F39" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="52"/>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36" t="s">
+      <c r="I39" s="44"/>
+      <c r="J39" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38" t="s">
+      <c r="K39" s="46"/>
+      <c r="L39" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="39"/>
-      <c r="N39" s="40" t="s">
+      <c r="M39" s="48"/>
+      <c r="N39" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="42" t="s">
+      <c r="O39" s="50"/>
+      <c r="P39" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q39" s="43"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
+      <c r="AT39" s="38"/>
+      <c r="AU39" s="38"/>
+      <c r="AV39" s="38"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="38"/>
+      <c r="BH39" s="38"/>
+      <c r="BI39" s="38"/>
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="38"/>
+      <c r="BL39" s="38"/>
+      <c r="BM39" s="38"/>
+      <c r="BN39" s="38"/>
+      <c r="BO39" s="38"/>
+      <c r="BP39" s="38"/>
+      <c r="BQ39" s="38"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="38"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="38"/>
+      <c r="BW39" s="38"/>
+      <c r="BX39" s="38"/>
+      <c r="BY39" s="38"/>
+      <c r="BZ39" s="38"/>
+      <c r="CA39" s="38"/>
+      <c r="CB39" s="38"/>
+      <c r="CC39" s="38"/>
+      <c r="CD39" s="38"/>
+      <c r="CE39" s="38"/>
+      <c r="CF39" s="38"/>
+      <c r="CG39" s="38"/>
+      <c r="CH39" s="38"/>
+    </row>
+    <row r="41" spans="2:86" x14ac:dyDescent="0.3">
+      <c r="B41" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="54"/>
+      <c r="AJ41" s="55"/>
     </row>
     <row r="42" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B42" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="55"/>
+      <c r="B42" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="29"/>
     </row>
     <row r="43" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B43" s="56" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
       <c r="E43" s="58"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="68" t="s">
+      <c r="F43" s="31">
+        <v>0</v>
+      </c>
+      <c r="G43" s="31">
+        <v>1</v>
+      </c>
+      <c r="H43" s="31">
+        <v>2</v>
+      </c>
+      <c r="I43" s="31">
+        <v>3</v>
+      </c>
+      <c r="J43" s="31">
+        <v>4</v>
+      </c>
+      <c r="K43" s="31">
+        <v>5</v>
+      </c>
+      <c r="L43" s="31">
         <v>6</v>
       </c>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="71"/>
+      <c r="M43" s="31">
+        <v>7</v>
+      </c>
+      <c r="N43" s="31">
+        <v>8</v>
+      </c>
+      <c r="O43" s="31">
+        <v>9</v>
+      </c>
+      <c r="P43" s="31">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="31">
+        <v>11</v>
+      </c>
+      <c r="R43" s="31">
+        <v>12</v>
+      </c>
+      <c r="S43" s="31">
+        <v>13</v>
+      </c>
+      <c r="T43" s="31">
+        <v>14</v>
+      </c>
+      <c r="U43" s="31">
+        <v>15</v>
+      </c>
+      <c r="V43" s="31">
+        <v>16</v>
+      </c>
+      <c r="W43" s="31">
+        <v>17</v>
+      </c>
+      <c r="X43" s="31">
+        <v>18</v>
+      </c>
+      <c r="Y43" s="31">
+        <v>19</v>
+      </c>
+      <c r="Z43" s="31">
+        <v>20</v>
+      </c>
+      <c r="AA43" s="31">
+        <v>21</v>
+      </c>
+      <c r="AB43" s="31">
+        <v>22</v>
+      </c>
+      <c r="AC43" s="31">
+        <v>23</v>
+      </c>
+      <c r="AD43" s="31">
+        <v>24</v>
+      </c>
+      <c r="AE43" s="31">
+        <v>25</v>
+      </c>
+      <c r="AF43" s="31">
+        <v>26</v>
+      </c>
+      <c r="AG43" s="31">
+        <v>27</v>
+      </c>
+      <c r="AH43" s="31">
+        <v>28</v>
+      </c>
+      <c r="AI43" s="31">
+        <v>29</v>
+      </c>
+      <c r="AJ43" s="32">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B44" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="72">
-        <v>0</v>
-      </c>
-      <c r="G44" s="73">
-        <v>1</v>
-      </c>
-      <c r="H44" s="73">
-        <v>2</v>
-      </c>
-      <c r="I44" s="73">
-        <v>3</v>
-      </c>
-      <c r="J44" s="73">
+      <c r="B44" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="73">
+      <c r="C44" s="60"/>
+      <c r="D44" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="73">
-        <v>6</v>
-      </c>
-      <c r="M44" s="73">
-        <v>7</v>
-      </c>
-      <c r="N44" s="73">
-        <v>8</v>
-      </c>
-      <c r="O44" s="73">
-        <v>9</v>
-      </c>
-      <c r="P44" s="73">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="73">
-        <v>11</v>
-      </c>
-      <c r="R44" s="74">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B45" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
     </row>
     <row r="47" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -2593,7 +2856,45 @@
       <c r="O47" s="54"/>
       <c r="P47" s="54"/>
       <c r="Q47" s="54"/>
-      <c r="R47" s="55"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54"/>
+      <c r="AR47" s="54"/>
+      <c r="AS47" s="54"/>
+      <c r="AT47" s="54"/>
+      <c r="AU47" s="54"/>
+      <c r="AV47" s="54"/>
+      <c r="AW47" s="54"/>
+      <c r="AX47" s="54"/>
+      <c r="AY47" s="54"/>
+      <c r="AZ47" s="54"/>
+      <c r="BA47" s="54"/>
+      <c r="BB47" s="54"/>
+      <c r="BC47" s="54"/>
+      <c r="BD47" s="55"/>
     </row>
     <row r="48" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B48" s="56" t="s">
@@ -2602,101 +2903,300 @@
       <c r="C48" s="57"/>
       <c r="D48" s="57"/>
       <c r="E48" s="58"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="68" t="s">
+      <c r="F48" s="33"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="22"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="71"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="44" t="s">
+      <c r="BA48" s="33"/>
+      <c r="BB48" s="33"/>
+      <c r="BC48" s="33"/>
+      <c r="BD48" s="34"/>
+    </row>
+    <row r="49" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B49" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="72">
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="31">
         <v>0</v>
       </c>
-      <c r="G49" s="73">
+      <c r="G49" s="31">
         <v>1</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H49" s="31">
         <v>2</v>
       </c>
-      <c r="I49" s="73">
+      <c r="I49" s="31">
         <v>3</v>
       </c>
-      <c r="J49" s="73">
+      <c r="J49" s="31">
         <v>4</v>
       </c>
-      <c r="K49" s="73">
+      <c r="K49" s="31">
         <v>5</v>
       </c>
-      <c r="L49" s="73">
+      <c r="L49" s="31">
         <v>6</v>
       </c>
-      <c r="M49" s="73">
+      <c r="M49" s="31">
         <v>7</v>
       </c>
-      <c r="N49" s="73">
+      <c r="N49" s="31">
         <v>8</v>
       </c>
-      <c r="O49" s="73">
+      <c r="O49" s="31">
         <v>9</v>
       </c>
-      <c r="P49" s="73">
+      <c r="P49" s="31">
         <v>10</v>
       </c>
-      <c r="Q49" s="73">
+      <c r="Q49" s="31">
         <v>11</v>
       </c>
-      <c r="R49" s="74">
+      <c r="R49" s="31">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="47" t="s">
+      <c r="S49" s="31">
+        <v>13</v>
+      </c>
+      <c r="T49" s="31">
+        <v>14</v>
+      </c>
+      <c r="U49" s="31">
+        <v>15</v>
+      </c>
+      <c r="V49" s="31">
+        <v>16</v>
+      </c>
+      <c r="W49" s="31">
+        <v>17</v>
+      </c>
+      <c r="X49" s="31">
+        <v>18</v>
+      </c>
+      <c r="Y49" s="31">
+        <v>19</v>
+      </c>
+      <c r="Z49" s="31">
+        <v>20</v>
+      </c>
+      <c r="AA49" s="31">
+        <v>21</v>
+      </c>
+      <c r="AB49" s="31">
+        <v>22</v>
+      </c>
+      <c r="AC49" s="31">
+        <v>23</v>
+      </c>
+      <c r="AD49" s="31">
+        <v>24</v>
+      </c>
+      <c r="AE49" s="31">
+        <v>25</v>
+      </c>
+      <c r="AF49" s="31">
+        <v>26</v>
+      </c>
+      <c r="AG49" s="31">
+        <v>27</v>
+      </c>
+      <c r="AH49" s="31">
+        <v>28</v>
+      </c>
+      <c r="AI49" s="31">
+        <v>29</v>
+      </c>
+      <c r="AJ49" s="31">
+        <v>30</v>
+      </c>
+      <c r="AK49" s="31">
+        <v>31</v>
+      </c>
+      <c r="AL49" s="31">
+        <v>32</v>
+      </c>
+      <c r="AM49" s="31">
+        <v>33</v>
+      </c>
+      <c r="AN49" s="31">
+        <v>34</v>
+      </c>
+      <c r="AO49" s="31">
+        <v>35</v>
+      </c>
+      <c r="AP49" s="31">
+        <v>36</v>
+      </c>
+      <c r="AQ49" s="31">
+        <v>37</v>
+      </c>
+      <c r="AR49" s="31">
+        <v>38</v>
+      </c>
+      <c r="AS49" s="31">
+        <v>39</v>
+      </c>
+      <c r="AT49" s="31">
+        <v>40</v>
+      </c>
+      <c r="AU49" s="31">
+        <v>41</v>
+      </c>
+      <c r="AV49" s="31">
+        <v>42</v>
+      </c>
+      <c r="AW49" s="31">
+        <v>43</v>
+      </c>
+      <c r="AX49" s="31">
+        <v>44</v>
+      </c>
+      <c r="AY49" s="31">
+        <v>45</v>
+      </c>
+      <c r="AZ49" s="31">
+        <v>46</v>
+      </c>
+      <c r="BA49" s="31">
+        <v>47</v>
+      </c>
+      <c r="BB49" s="31">
+        <v>48</v>
+      </c>
+      <c r="BC49" s="31">
+        <v>49</v>
+      </c>
+      <c r="BD49" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B50" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49" t="s">
+      <c r="C50" s="74"/>
+      <c r="D50" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="77"/>
+      <c r="E50" s="76"/>
       <c r="F50" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="52"/>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="35"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+      <c r="AP50" s="38"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="38"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="71">
+    <mergeCell ref="B41:AJ41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B47:R47"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B47:BD47"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
@@ -2718,7 +3218,6 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B2:R2"/>
     <mergeCell ref="B26:AJ26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
@@ -2734,7 +3233,11 @@
     <mergeCell ref="B9:AJ9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B2:R2"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="B17:AJ17"/>
@@ -2746,16 +3249,13 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/gantt_v2.xlsx
+++ b/gantt_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\BTL-OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C35E11-1E79-45BF-AB7D-E89E7D61F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404FA94-BD3B-44AD-BBD5-44C508AC1918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C73C31B1-B754-4D39-8C55-21044C937229}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>CPU0</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>sched_0</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -356,72 +359,93 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,15 +455,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,18 +473,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F33130-4EBC-41EA-B880-5188CA6763B7}">
-  <dimension ref="B2:CR50"/>
+  <dimension ref="B2:CR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BC43" sqref="BC43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AZ51" sqref="AZ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,33 +804,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
     </row>
     <row r="3" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="2"/>
@@ -840,12 +848,12 @@
       </c>
     </row>
     <row r="4" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="28"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -863,12 +871,12 @@
       <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="31">
         <v>0</v>
       </c>
@@ -988,17 +996,17 @@
       <c r="CR5" s="3"/>
     </row>
     <row r="6" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
@@ -1011,51 +1019,51 @@
       <c r="R6" s="38"/>
     </row>
     <row r="9" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="55"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="41"/>
     </row>
     <row r="10" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="5"/>
@@ -1091,12 +1099,12 @@
       <c r="AJ10" s="29"/>
     </row>
     <row r="11" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="27"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1132,12 +1140,12 @@
       <c r="AJ11" s="29"/>
     </row>
     <row r="12" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -1173,12 +1181,12 @@
       <c r="AJ12" s="34"/>
     </row>
     <row r="13" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1214,12 +1222,12 @@
       <c r="AJ13" s="30"/>
     </row>
     <row r="14" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="31">
         <v>0</v>
       </c>
@@ -1315,38 +1323,38 @@
       </c>
     </row>
     <row r="15" spans="2:96" x14ac:dyDescent="0.3">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="43" t="s">
+      <c r="G15" s="50"/>
+      <c r="H15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45" t="s">
+      <c r="I15" s="52"/>
+      <c r="J15" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47" t="s">
+      <c r="K15" s="61"/>
+      <c r="L15" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49" t="s">
+      <c r="M15" s="63"/>
+      <c r="N15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="50"/>
-      <c r="P15" s="39" t="s">
+      <c r="O15" s="65"/>
+      <c r="P15" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="40"/>
+      <c r="Q15" s="67"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -1368,51 +1376,51 @@
       <c r="AJ15" s="38"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="55"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="41"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="5"/>
@@ -1448,12 +1456,12 @@
       <c r="AJ18" s="29"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="27"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1489,12 +1497,12 @@
       <c r="AJ19" s="29"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
@@ -1530,12 +1538,12 @@
       <c r="AJ20" s="34"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -1571,12 +1579,12 @@
       <c r="AJ21" s="30"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="31">
         <v>0</v>
       </c>
@@ -1672,38 +1680,38 @@
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="51" t="s">
+      <c r="E23" s="48"/>
+      <c r="F23" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="43" t="s">
+      <c r="G23" s="50"/>
+      <c r="H23" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45" t="s">
+      <c r="I23" s="52"/>
+      <c r="J23" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47" t="s">
+      <c r="K23" s="61"/>
+      <c r="L23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="48"/>
-      <c r="N23" s="49" t="s">
+      <c r="M23" s="63"/>
+      <c r="N23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="50"/>
-      <c r="P23" s="39" t="s">
+      <c r="O23" s="65"/>
+      <c r="P23" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q23" s="40"/>
+      <c r="Q23" s="67"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
@@ -1725,51 +1733,51 @@
       <c r="AJ23" s="38"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="55"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="41"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -1805,12 +1813,12 @@
       <c r="AJ27" s="29"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -1846,12 +1854,12 @@
       <c r="AJ28" s="29"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="33"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -1887,12 +1895,12 @@
       <c r="AJ29" s="34"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -1928,12 +1936,12 @@
       <c r="AJ30" s="30"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="31">
         <v>0</v>
       </c>
@@ -2029,38 +2037,38 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="41" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="51" t="s">
+      <c r="E32" s="48"/>
+      <c r="F32" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="43" t="s">
+      <c r="G32" s="50"/>
+      <c r="H32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45" t="s">
+      <c r="I32" s="52"/>
+      <c r="J32" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47" t="s">
+      <c r="K32" s="61"/>
+      <c r="L32" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49" t="s">
+      <c r="M32" s="63"/>
+      <c r="N32" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="50"/>
-      <c r="P32" s="39" t="s">
+      <c r="O32" s="65"/>
+      <c r="P32" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q32" s="40"/>
+      <c r="Q32" s="67"/>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
@@ -2082,101 +2090,101 @@
       <c r="AJ32" s="38"/>
     </row>
     <row r="36" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="54"/>
-      <c r="AM36" s="54"/>
-      <c r="AN36" s="54"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
-      <c r="AQ36" s="54"/>
-      <c r="AR36" s="54"/>
-      <c r="AS36" s="54"/>
-      <c r="AT36" s="54"/>
-      <c r="AU36" s="54"/>
-      <c r="AV36" s="54"/>
-      <c r="AW36" s="54"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="54"/>
-      <c r="AZ36" s="54"/>
-      <c r="BA36" s="54"/>
-      <c r="BB36" s="54"/>
-      <c r="BC36" s="54"/>
-      <c r="BD36" s="54"/>
-      <c r="BE36" s="54"/>
-      <c r="BF36" s="54"/>
-      <c r="BG36" s="54"/>
-      <c r="BH36" s="54"/>
-      <c r="BI36" s="54"/>
-      <c r="BJ36" s="54"/>
-      <c r="BK36" s="54"/>
-      <c r="BL36" s="54"/>
-      <c r="BM36" s="54"/>
-      <c r="BN36" s="54"/>
-      <c r="BO36" s="54"/>
-      <c r="BP36" s="54"/>
-      <c r="BQ36" s="54"/>
-      <c r="BR36" s="54"/>
-      <c r="BS36" s="54"/>
-      <c r="BT36" s="54"/>
-      <c r="BU36" s="54"/>
-      <c r="BV36" s="54"/>
-      <c r="BW36" s="54"/>
-      <c r="BX36" s="54"/>
-      <c r="BY36" s="54"/>
-      <c r="BZ36" s="54"/>
-      <c r="CA36" s="54"/>
-      <c r="CB36" s="54"/>
-      <c r="CC36" s="54"/>
-      <c r="CD36" s="54"/>
-      <c r="CE36" s="54"/>
-      <c r="CF36" s="54"/>
-      <c r="CG36" s="54"/>
-      <c r="CH36" s="55"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="40"/>
+      <c r="AK36" s="40"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="40"/>
+      <c r="AN36" s="40"/>
+      <c r="AO36" s="40"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="40"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="40"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="40"/>
+      <c r="BB36" s="40"/>
+      <c r="BC36" s="40"/>
+      <c r="BD36" s="40"/>
+      <c r="BE36" s="40"/>
+      <c r="BF36" s="40"/>
+      <c r="BG36" s="40"/>
+      <c r="BH36" s="40"/>
+      <c r="BI36" s="40"/>
+      <c r="BJ36" s="40"/>
+      <c r="BK36" s="40"/>
+      <c r="BL36" s="40"/>
+      <c r="BM36" s="40"/>
+      <c r="BN36" s="40"/>
+      <c r="BO36" s="40"/>
+      <c r="BP36" s="40"/>
+      <c r="BQ36" s="40"/>
+      <c r="BR36" s="40"/>
+      <c r="BS36" s="40"/>
+      <c r="BT36" s="40"/>
+      <c r="BU36" s="40"/>
+      <c r="BV36" s="40"/>
+      <c r="BW36" s="40"/>
+      <c r="BX36" s="40"/>
+      <c r="BY36" s="40"/>
+      <c r="BZ36" s="40"/>
+      <c r="CA36" s="40"/>
+      <c r="CB36" s="40"/>
+      <c r="CC36" s="40"/>
+      <c r="CD36" s="40"/>
+      <c r="CE36" s="40"/>
+      <c r="CF36" s="40"/>
+      <c r="CG36" s="40"/>
+      <c r="CH36" s="41"/>
     </row>
     <row r="37" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="37"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
@@ -2262,12 +2270,12 @@
       <c r="CH37" s="34"/>
     </row>
     <row r="38" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="31">
         <v>0</v>
       </c>
@@ -2513,38 +2521,38 @@
       </c>
     </row>
     <row r="39" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="41" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="51" t="s">
+      <c r="E39" s="48"/>
+      <c r="F39" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="43" t="s">
+      <c r="G39" s="50"/>
+      <c r="H39" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45" t="s">
+      <c r="I39" s="52"/>
+      <c r="J39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47" t="s">
+      <c r="K39" s="61"/>
+      <c r="L39" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="49" t="s">
+      <c r="M39" s="63"/>
+      <c r="N39" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="50"/>
-      <c r="P39" s="39" t="s">
+      <c r="O39" s="65"/>
+      <c r="P39" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q39" s="40"/>
+      <c r="Q39" s="67"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
@@ -2616,51 +2624,51 @@
       <c r="CH39" s="38"/>
     </row>
     <row r="41" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54"/>
-      <c r="AH41" s="54"/>
-      <c r="AI41" s="54"/>
-      <c r="AJ41" s="55"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="40"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="41"/>
     </row>
     <row r="42" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="27"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2696,12 +2704,12 @@
       <c r="AJ42" s="29"/>
     </row>
     <row r="43" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="31">
         <v>0</v>
       </c>
@@ -2797,14 +2805,14 @@
       </c>
     </row>
     <row r="44" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="41" t="s">
+      <c r="C44" s="46"/>
+      <c r="D44" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
@@ -2838,71 +2846,71 @@
       <c r="AJ44" s="38"/>
     </row>
     <row r="47" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-      <c r="AH47" s="54"/>
-      <c r="AI47" s="54"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="54"/>
-      <c r="AL47" s="54"/>
-      <c r="AM47" s="54"/>
-      <c r="AN47" s="54"/>
-      <c r="AO47" s="54"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="54"/>
-      <c r="AR47" s="54"/>
-      <c r="AS47" s="54"/>
-      <c r="AT47" s="54"/>
-      <c r="AU47" s="54"/>
-      <c r="AV47" s="54"/>
-      <c r="AW47" s="54"/>
-      <c r="AX47" s="54"/>
-      <c r="AY47" s="54"/>
-      <c r="AZ47" s="54"/>
-      <c r="BA47" s="54"/>
-      <c r="BB47" s="54"/>
-      <c r="BC47" s="54"/>
-      <c r="BD47" s="55"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="40"/>
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="40"/>
+      <c r="AP47" s="40"/>
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="40"/>
+      <c r="AT47" s="40"/>
+      <c r="AU47" s="40"/>
+      <c r="AV47" s="40"/>
+      <c r="AW47" s="40"/>
+      <c r="AX47" s="40"/>
+      <c r="AY47" s="40"/>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="40"/>
+      <c r="BB47" s="40"/>
+      <c r="BC47" s="40"/>
+      <c r="BD47" s="41"/>
     </row>
     <row r="48" spans="2:86" x14ac:dyDescent="0.3">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="58"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
       <c r="F48" s="33"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
@@ -2958,12 +2966,12 @@
       <c r="BD48" s="34"/>
     </row>
     <row r="49" spans="2:56" x14ac:dyDescent="0.3">
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="31">
         <v>0</v>
       </c>
@@ -3119,22 +3127,22 @@
       </c>
     </row>
     <row r="50" spans="2:56" x14ac:dyDescent="0.3">
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="76"/>
-      <c r="F50" s="51" t="s">
+      <c r="E50" s="59"/>
+      <c r="F50" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="43" t="s">
+      <c r="G50" s="50"/>
+      <c r="H50" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="44"/>
+      <c r="I50" s="52"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
@@ -3183,41 +3191,333 @@
       <c r="BC50" s="38"/>
       <c r="BD50" s="38"/>
     </row>
+    <row r="54" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="78"/>
+      <c r="AG54" s="78"/>
+      <c r="AH54" s="78"/>
+      <c r="AI54" s="78"/>
+      <c r="AJ54" s="78"/>
+      <c r="AK54" s="78"/>
+      <c r="AL54" s="78"/>
+      <c r="AM54" s="78"/>
+      <c r="AN54" s="78"/>
+      <c r="AO54" s="78"/>
+      <c r="AP54" s="78"/>
+      <c r="AQ54" s="78"/>
+      <c r="AR54" s="78"/>
+      <c r="AS54" s="78"/>
+      <c r="AT54" s="78"/>
+      <c r="AU54" s="78"/>
+      <c r="AV54" s="78"/>
+      <c r="AW54" s="78"/>
+      <c r="AX54" s="78"/>
+      <c r="AY54" s="78"/>
+      <c r="AZ54" s="78"/>
+      <c r="BA54" s="78"/>
+      <c r="BB54" s="78"/>
+      <c r="BC54" s="78"/>
+      <c r="BD54" s="78"/>
+    </row>
+    <row r="55" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B55" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="77"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="79"/>
+      <c r="AG55" s="79"/>
+      <c r="AH55" s="79"/>
+      <c r="AI55" s="79"/>
+      <c r="AJ55" s="79"/>
+      <c r="AK55" s="79"/>
+      <c r="AL55" s="79"/>
+      <c r="AM55" s="79"/>
+      <c r="AN55" s="79"/>
+      <c r="AO55" s="79"/>
+      <c r="AP55" s="79"/>
+      <c r="AQ55" s="79"/>
+      <c r="AR55" s="79"/>
+      <c r="AS55" s="79"/>
+      <c r="AT55" s="79"/>
+      <c r="AU55" s="79"/>
+      <c r="AV55" s="79"/>
+      <c r="AW55" s="79"/>
+      <c r="AX55" s="79"/>
+      <c r="AY55" s="79"/>
+      <c r="AZ55" s="79"/>
+      <c r="BA55" s="79"/>
+      <c r="BB55" s="79"/>
+      <c r="BC55" s="79"/>
+      <c r="BD55" s="79"/>
+    </row>
+    <row r="56" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B56" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="31">
+        <v>0</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1</v>
+      </c>
+      <c r="H56" s="31">
+        <v>2</v>
+      </c>
+      <c r="I56" s="31">
+        <v>3</v>
+      </c>
+      <c r="J56" s="31">
+        <v>4</v>
+      </c>
+      <c r="K56" s="31">
+        <v>5</v>
+      </c>
+      <c r="L56" s="31">
+        <v>6</v>
+      </c>
+      <c r="M56" s="31">
+        <v>7</v>
+      </c>
+      <c r="N56" s="31">
+        <v>8</v>
+      </c>
+      <c r="O56" s="31">
+        <v>9</v>
+      </c>
+      <c r="P56" s="31">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="31">
+        <v>11</v>
+      </c>
+      <c r="R56" s="31">
+        <v>12</v>
+      </c>
+      <c r="S56" s="31">
+        <v>13</v>
+      </c>
+      <c r="T56" s="31">
+        <v>14</v>
+      </c>
+      <c r="U56" s="31">
+        <v>15</v>
+      </c>
+      <c r="V56" s="31">
+        <v>16</v>
+      </c>
+      <c r="W56" s="31">
+        <v>17</v>
+      </c>
+      <c r="X56" s="31">
+        <v>18</v>
+      </c>
+      <c r="Y56" s="31">
+        <v>19</v>
+      </c>
+      <c r="Z56" s="31">
+        <v>20</v>
+      </c>
+      <c r="AA56" s="31">
+        <v>21</v>
+      </c>
+      <c r="AB56" s="31">
+        <v>22</v>
+      </c>
+      <c r="AC56" s="31">
+        <v>23</v>
+      </c>
+      <c r="AD56" s="31">
+        <v>24</v>
+      </c>
+      <c r="AE56" s="32">
+        <v>25</v>
+      </c>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="80"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="80"/>
+      <c r="AL56" s="80"/>
+      <c r="AM56" s="80"/>
+      <c r="AN56" s="80"/>
+      <c r="AO56" s="80"/>
+      <c r="AP56" s="80"/>
+      <c r="AQ56" s="80"/>
+      <c r="AR56" s="80"/>
+      <c r="AS56" s="80"/>
+      <c r="AT56" s="80"/>
+      <c r="AU56" s="80"/>
+      <c r="AV56" s="80"/>
+      <c r="AW56" s="80"/>
+      <c r="AX56" s="80"/>
+      <c r="AY56" s="80"/>
+      <c r="AZ56" s="80"/>
+      <c r="BA56" s="80"/>
+      <c r="BB56" s="80"/>
+      <c r="BC56" s="80"/>
+      <c r="BD56" s="80"/>
+    </row>
+    <row r="57" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B57" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="52"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="38"/>
+      <c r="AC57" s="38"/>
+      <c r="AD57" s="38"/>
+      <c r="AE57" s="38"/>
+      <c r="AF57" s="81"/>
+      <c r="AG57" s="81"/>
+      <c r="AH57" s="81"/>
+      <c r="AI57" s="81"/>
+      <c r="AJ57" s="81"/>
+      <c r="AK57" s="81"/>
+      <c r="AL57" s="81"/>
+      <c r="AM57" s="81"/>
+      <c r="AN57" s="81"/>
+      <c r="AO57" s="81"/>
+      <c r="AP57" s="81"/>
+      <c r="AQ57" s="81"/>
+      <c r="AR57" s="81"/>
+      <c r="AS57" s="81"/>
+      <c r="AT57" s="81"/>
+      <c r="AU57" s="81"/>
+      <c r="AV57" s="81"/>
+      <c r="AW57" s="81"/>
+      <c r="AX57" s="81"/>
+      <c r="AY57" s="81"/>
+      <c r="AZ57" s="81"/>
+      <c r="BA57" s="81"/>
+      <c r="BB57" s="81"/>
+      <c r="BC57" s="81"/>
+      <c r="BD57" s="81"/>
+    </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="B41:AJ41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B47:BD47"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B36:CH36"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
+  <mergeCells count="78">
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B54:AE54"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B17:AJ17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="B26:AJ26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
@@ -3234,28 +3534,39 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B17:AJ17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B36:CH36"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B47:BD47"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B41:AJ41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
